--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P11_trail5 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P11_trail5 Features.xlsx
@@ -3692,7 +3692,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3703,29 +3703,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="21" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
     <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="18" bestFit="1" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3746,115 +3744,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -3871,72 +3859,66 @@
         <v>1.419920845080094e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.09592415940573321</v>
+        <v>5.05007781377783e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-0.9645979149740942</v>
+        <v>3.392018334188135e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>5.05007781377783e-07</v>
+        <v>-0.02004340448966689</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>3.392018334188135e-06</v>
+        <v>0.1365164525148377</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.02004340448966689</v>
+        <v>0.01903837695266732</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.1365164525148377</v>
+        <v>1.901702097872289</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.01903837695266732</v>
+        <v>2.124876179732632</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.915784864769328</v>
+        <v>4.103936075068854</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>2.124876179732632</v>
+        <v>3.910737997436148e-16</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.103936075068854</v>
+        <v>486884397.89795</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>3.910737997436148e-16</v>
+        <v>2.445295975124743e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>486884397.89795</v>
+        <v>92.70655371712233</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>2.445295975124743e-07</v>
+        <v>0.0001494922914064793</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>92.70655371712233</v>
+        <v>8.266217213290899</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001494922914064793</v>
+        <v>1.317036484436142</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>8.266217213290899</v>
+        <v>0.01021486014821707</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.317036484436142</v>
+        <v>2.945663615396426</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01021486014821707</v>
+        <v>0.9582335178529021</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.945663615396426</v>
+        <v>1.422867864599157</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9582335178529021</v>
+        <v>16</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.422867864599157</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.3070458252099993</v>
       </c>
     </row>
@@ -3951,72 +3933,66 @@
         <v>1.450320605933917e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.07604554900985144</v>
+        <v>5.073060363801459e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-1.003131377180883</v>
+        <v>3.389145566793892e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>5.073060363801459e-07</v>
+        <v>-0.02025336122105954</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>3.389145566793892e-06</v>
+        <v>0.133473209046821</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.02025336122105954</v>
+        <v>0.01822493061228797</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.133473209046821</v>
+        <v>1.902115695247297</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.01822493061228797</v>
+        <v>2.256558389273291</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.913116561186944</v>
+        <v>4.208772581486382</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>2.256558389273291</v>
+        <v>4.418179871682206e-16</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.208772581486382</v>
+        <v>431768575.3301014</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>4.418179871682206e-16</v>
+        <v>2.757716525300966e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>431768575.3301014</v>
+        <v>82.36552178918886</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>2.757716525300966e-07</v>
+        <v>0.0001722452039756375</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>82.36552178918886</v>
+        <v>8.409525680067238</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001722452039756375</v>
+        <v>1.537550177508333</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>8.409525680067238</v>
+        <v>0.01218120186727029</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.537550177508333</v>
+        <v>2.908977594343642</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01218120186727029</v>
+        <v>0.9574511293810352</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.908977594343642</v>
+        <v>1.440439906155472</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9574511293810352</v>
+        <v>16</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.440439906155472</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.2749899303946877</v>
       </c>
     </row>
@@ -4031,72 +4007,66 @@
         <v>1.48032278780658e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.06608719500566551</v>
+        <v>5.073284676601629e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.048111817752383</v>
+        <v>3.386077302614147e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>5.073284676601629e-07</v>
+        <v>-0.02179388251550084</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>3.386077302614147e-06</v>
+        <v>0.1293567094132048</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.02179388251550084</v>
+        <v>0.01720600333569846</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1293567094132048</v>
+        <v>1.894180041177655</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.01720600333569846</v>
+        <v>2.27084123104786</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.906123292014755</v>
+        <v>3.978341652482837</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.27084123104786</v>
+        <v>4.999675637326581e-16</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.978341652482837</v>
+        <v>398541738.5594783</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>4.999675637326581e-16</v>
+        <v>2.997879797618847e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>398541738.5594783</v>
+        <v>79.41260665570084</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>2.997879797618847e-07</v>
+        <v>0.000172681748746967</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>79.41260665570084</v>
+        <v>10.00192857146578</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.000172681748746967</v>
+        <v>1.262823006888448</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>10.00192857146578</v>
+        <v>0.017274836098833</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.262823006888448</v>
+        <v>2.822813995614225</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.017274836098833</v>
+        <v>0.9569969806533662</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.822813995614225</v>
+        <v>1.413525905854598</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9569969806533662</v>
+        <v>16</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.413525905854598</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.2758425106624972</v>
       </c>
     </row>
@@ -4111,72 +4081,66 @@
         <v>1.509252880827437e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.07180621521718739</v>
+        <v>5.073284676601629e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.099070339418349</v>
+        <v>3.382608174549831e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>5.073284676601629e-07</v>
+        <v>-0.02491180962131686</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>3.382608174549831e-06</v>
+        <v>0.1223903161152283</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.02491180962131686</v>
+        <v>0.01559410415016414</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1223903161152283</v>
+        <v>1.87032792569727</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.01559410415016414</v>
+        <v>2.172132160979695</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.866583238901545</v>
+        <v>3.843589855759189</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.172132160979695</v>
+        <v>5.356386492785718e-16</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.843589855759189</v>
+        <v>373837968.0518059</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>5.356386492785718e-16</v>
+        <v>3.188095884701298e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>373837968.0518059</v>
+        <v>74.85808642008001</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>3.188095884701298e-07</v>
+        <v>0.0001622768316319823</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>74.85808642008001</v>
+        <v>11.26574235252965</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001622768316319823</v>
+        <v>1.072367446002138</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>11.26574235252965</v>
+        <v>0.02059568064868333</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.072367446002138</v>
+        <v>2.644292002347636</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.02059568064868333</v>
+        <v>0.9562923491648386</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.644292002347636</v>
+        <v>1.471931474913669</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9562923491648386</v>
+        <v>17</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.471931474913669</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.2934159674851967</v>
       </c>
     </row>
@@ -4191,72 +4155,66 @@
         <v>1.535738688152313e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.09735774403114406</v>
+        <v>5.073284676601629e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.144992615440468</v>
+        <v>3.3784463871779e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>5.073284676601629e-07</v>
+        <v>-0.02988665207367646</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>3.3784463871779e-06</v>
+        <v>0.1108793615352773</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.02988665207367646</v>
+        <v>0.0131792569841981</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1108793615352773</v>
+        <v>1.866833759036848</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.0131792569841981</v>
+        <v>2.121804109045426</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.858828762917337</v>
+        <v>3.528004965894171</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>2.121804109045426</v>
+        <v>6.357518134989096e-16</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.528004965894171</v>
+        <v>308096743.6968707</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>6.357518134989096e-16</v>
+        <v>3.877622903942969e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>308096743.6968707</v>
+        <v>60.34785305410953</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>3.877622903942969e-07</v>
+        <v>0.0001587908750179619</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>60.34785305410953</v>
+        <v>9.496462023446327</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001587908750179619</v>
+        <v>1.237561106509335</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>9.496462023446327</v>
+        <v>0.01432020428853833</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.237561106509335</v>
+        <v>2.861311385520715</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01432020428853833</v>
+        <v>0.9573111959521814</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.861311385520715</v>
+        <v>1.507432972785022</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9573111959521814</v>
+        <v>17</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.507432972785022</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.2587335945796399</v>
       </c>
     </row>
@@ -4271,72 +4229,66 @@
         <v>1.557009893842126e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.1411717199851792</v>
+        <v>5.073284676601629e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.168077114806366</v>
+        <v>3.373393430155463e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>5.073284676601629e-07</v>
+        <v>-0.03537282458720407</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>3.373393430155463e-06</v>
+        <v>0.09753557166878205</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.03537282458720407</v>
+        <v>0.01075664403283714</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.09753557166878205</v>
+        <v>1.859882964985132</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.01075664403283714</v>
+        <v>2.080107881216558</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.851399518897029</v>
+        <v>3.491823047957221</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>2.080107881216558</v>
+        <v>6.489952657344546e-16</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.491823047957221</v>
+        <v>315386917.5098777</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>6.489952657344546e-16</v>
+        <v>3.793193471899606e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>315386917.5098777</v>
+        <v>64.55485020868943</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>3.793193471899606e-07</v>
+        <v>0.0001607053138511416</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>64.55485020868943</v>
+        <v>8.452826182984763</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001607053138511416</v>
+        <v>1.409502815956472</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>8.452826182984763</v>
+        <v>0.01148243814219762</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.409502815956472</v>
+        <v>2.918626984240777</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01148243814219762</v>
+        <v>0.9565836271708195</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.918626984240777</v>
+        <v>1.528279271756192</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9565836271708195</v>
+        <v>24</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.528279271756192</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.2446153930152263</v>
       </c>
     </row>
@@ -4713,7 +4665,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.348861853384594</v>
+        <v>1.343622194755298</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.314623656511156</v>
@@ -4802,7 +4754,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.354514126714186</v>
+        <v>1.346122601896695</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.207413596398526</v>
@@ -4891,7 +4843,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.344843033411636</v>
+        <v>1.340477237752298</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.358235845973796</v>
@@ -4980,7 +4932,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.381846341122406</v>
+        <v>1.374411327936281</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.186675331467737</v>
@@ -5069,7 +5021,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.387790859939797</v>
+        <v>1.386192602187246</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.315633189199479</v>
@@ -5158,7 +5110,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.377152716442489</v>
+        <v>1.374276299884375</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.25441275818659</v>
@@ -5247,7 +5199,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.402415244038419</v>
+        <v>1.397459033900254</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.06926712708463</v>
@@ -5336,7 +5288,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.401636275459069</v>
+        <v>1.39156523339021</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.07701698301782</v>
@@ -5425,7 +5377,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.413479348662487</v>
+        <v>1.408854826204862</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.122134081030238</v>
@@ -5514,7 +5466,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.42303716747428</v>
+        <v>1.415631765478588</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.210537423624386</v>
@@ -5603,7 +5555,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.408849031625518</v>
+        <v>1.4017087451871</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.079950719750597</v>
@@ -5692,7 +5644,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.420446615884616</v>
+        <v>1.415424859855894</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.200434913028269</v>
@@ -5781,7 +5733,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.438751154380959</v>
+        <v>1.432801932200642</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.106148423747133</v>
@@ -5870,7 +5822,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.451105143494392</v>
+        <v>1.442486954219376</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.149773730879346</v>
@@ -5959,7 +5911,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.451363529780868</v>
+        <v>1.444836808201216</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.142581757077439</v>
@@ -6048,7 +6000,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.462733076078213</v>
+        <v>1.456669699085045</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.098107781924589</v>
@@ -6137,7 +6089,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.470547811018459</v>
+        <v>1.464502545655683</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.025273749379534</v>
@@ -6226,7 +6178,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.467365778140484</v>
+        <v>1.451199597455746</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.177635155108732</v>
@@ -6315,7 +6267,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.436387861446082</v>
+        <v>1.430198856937229</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.075766294329469</v>
@@ -6404,7 +6356,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.482731805252367</v>
+        <v>1.473763768416245</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.18623624579643</v>
@@ -6493,7 +6445,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.472721030889084</v>
+        <v>1.460332218823299</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.333286554100164</v>
@@ -6582,7 +6534,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.463151002084099</v>
+        <v>1.446763952478464</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.331275792093909</v>
@@ -6671,7 +6623,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.45047295065517</v>
+        <v>1.440280549951409</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.210000954068315</v>
@@ -6760,7 +6712,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.442304043440368</v>
+        <v>1.434605348260843</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.28877321209</v>
@@ -6849,7 +6801,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.44927300104148</v>
+        <v>1.443208092001907</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.227201783101356</v>
@@ -6938,7 +6890,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.461257605621528</v>
+        <v>1.450163652302811</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.202598562233036</v>
@@ -7027,7 +6979,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.460193706413357</v>
+        <v>1.446459753365165</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.270633109606941</v>
@@ -7116,7 +7068,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.462774346988684</v>
+        <v>1.445337756320886</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.121112971679855</v>
@@ -7205,7 +7157,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.45213785397827</v>
+        <v>1.434177306977588</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.243312890069308</v>
@@ -7294,7 +7246,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.463223352378208</v>
+        <v>1.447084011329433</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.169985831929388</v>
@@ -7383,7 +7335,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.456522941341308</v>
+        <v>1.441551141919153</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.333295006613646</v>
@@ -7472,7 +7424,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.457908119790365</v>
+        <v>1.44198812906558</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.278680596016689</v>
@@ -7561,7 +7513,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.494425122406188</v>
+        <v>1.475449469173237</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.401581719612874</v>
@@ -7650,7 +7602,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.472641197364593</v>
+        <v>1.456956735018262</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.343622110656482</v>
@@ -7739,7 +7691,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.464987831334111</v>
+        <v>1.446229147689583</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.294213459095804</v>
@@ -7828,7 +7780,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.492630094560159</v>
+        <v>1.47652875959973</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.163541552324369</v>
@@ -7917,7 +7869,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.526402449763842</v>
+        <v>1.507167759438356</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.414330480474258</v>
@@ -8006,7 +7958,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.507481905122268</v>
+        <v>1.492714027043113</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.359360843338567</v>
@@ -8095,7 +8047,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.506759539378327</v>
+        <v>1.49404806464393</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.306029353178394</v>
@@ -8184,7 +8136,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.512894876098455</v>
+        <v>1.499630107527512</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.312134384705784</v>
@@ -8273,7 +8225,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.522176995812858</v>
+        <v>1.511532292367026</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.310715945094652</v>
@@ -8362,7 +8314,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.514967535225886</v>
+        <v>1.50583044412869</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.302131968617836</v>
@@ -8451,7 +8403,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.5167992024846</v>
+        <v>1.507154386849697</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.327746951083508</v>
@@ -8540,7 +8492,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.549709381330103</v>
+        <v>1.539143179569198</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.286289144991798</v>
@@ -8629,7 +8581,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.546736705283664</v>
+        <v>1.534570334441386</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.317032587105612</v>
@@ -8718,7 +8670,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.509181331983499</v>
+        <v>1.497239638243287</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.134231006903266</v>
@@ -8807,7 +8759,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.508446950212405</v>
+        <v>1.5010354494251</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.127174528986093</v>
@@ -8896,7 +8848,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.490429969532944</v>
+        <v>1.484590204712248</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.225117445212128</v>
@@ -8985,7 +8937,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.523438996703946</v>
+        <v>1.515251640337113</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.182857313214229</v>
@@ -9074,7 +9026,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.504764455433307</v>
+        <v>1.499754242907817</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.153931099148688</v>
@@ -9163,7 +9115,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.486367102300121</v>
+        <v>1.476360990658204</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.194611397636675</v>
@@ -9449,7 +9401,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.505192345890659</v>
+        <v>1.478996798376707</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.621400843308002</v>
@@ -9538,7 +9490,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.510147360272689</v>
+        <v>1.480677513450801</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.495994533948276</v>
@@ -9627,7 +9579,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.509591620209327</v>
+        <v>1.482223499645918</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.520549434064875</v>
@@ -9716,7 +9668,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.528901729222493</v>
+        <v>1.495512344344343</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.658739908598238</v>
@@ -9805,7 +9757,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.521127112749337</v>
+        <v>1.490291541584741</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.573517734194024</v>
@@ -9894,7 +9846,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.552463046426833</v>
+        <v>1.512228943279104</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.450320841413008</v>
@@ -9983,7 +9935,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.54292489674378</v>
+        <v>1.502231823996641</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.477092437569034</v>
@@ -10072,7 +10024,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.559813311658059</v>
+        <v>1.50656356617344</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.574560166709044</v>
@@ -10161,7 +10113,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.535074604830779</v>
+        <v>1.489379816807116</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.75834194306069</v>
@@ -10250,7 +10202,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.537521239299735</v>
+        <v>1.493348374061349</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.767267811531842</v>
@@ -10339,7 +10291,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.542276407597134</v>
+        <v>1.49775304400809</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.759281183980293</v>
@@ -10428,7 +10380,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.535381947809337</v>
+        <v>1.4976356199429</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.770707481311951</v>
@@ -10517,7 +10469,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.536549813796057</v>
+        <v>1.504770685444144</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.499379812587937</v>
@@ -10606,7 +10558,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.537770955512745</v>
+        <v>1.508945109485723</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.595013560009194</v>
@@ -10695,7 +10647,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.53887386692509</v>
+        <v>1.511283185705653</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.682175187969924</v>
@@ -10784,7 +10736,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.513713592822353</v>
+        <v>1.491190736142698</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.805678998847537</v>
@@ -10873,7 +10825,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.512119903454658</v>
+        <v>1.491087167778126</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.802044586667482</v>
@@ -10962,7 +10914,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.509203561935929</v>
+        <v>1.486955319992416</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.716969292570891</v>
@@ -11051,7 +11003,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.50576976520248</v>
+        <v>1.487482021729385</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.741784373640333</v>
@@ -11140,7 +11092,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.524567862680919</v>
+        <v>1.503217401424528</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.633275432427021</v>
@@ -11229,7 +11181,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.520261757716945</v>
+        <v>1.497959476191565</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.92651832666689</v>
@@ -11318,7 +11270,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.519183522187383</v>
+        <v>1.503427651458653</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.713335239469612</v>
@@ -11407,7 +11359,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.540064938717571</v>
+        <v>1.520400341342987</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.390578518197843</v>
@@ -11496,7 +11448,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.549895632221416</v>
+        <v>1.530060073774009</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.671552068782144</v>
@@ -11585,7 +11537,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.552160675095571</v>
+        <v>1.529778820098812</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.967979209029803</v>
@@ -11674,7 +11626,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.530715104483376</v>
+        <v>1.504996628569727</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.804068903548298</v>
@@ -11763,7 +11715,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.531012897313218</v>
+        <v>1.497727386492764</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.719955754200598</v>
@@ -11852,7 +11804,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.526742662416738</v>
+        <v>1.489387133952974</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.734930357867273</v>
@@ -11941,7 +11893,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.523578764227881</v>
+        <v>1.485756175054901</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.890503289685271</v>
@@ -12030,7 +11982,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.540306462997594</v>
+        <v>1.498082291221485</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.853756622781435</v>
@@ -12119,7 +12071,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.536290045238876</v>
+        <v>1.497261771315401</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.791399154889511</v>
@@ -12208,7 +12160,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.535341876943253</v>
+        <v>1.496236693697581</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.62952140301946</v>
@@ -12297,7 +12249,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.543967530710254</v>
+        <v>1.506207853323403</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.817738862414818</v>
@@ -12386,7 +12338,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.536497124214232</v>
+        <v>1.499688965666896</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.643230015049346</v>
@@ -12475,7 +12427,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.544642403815447</v>
+        <v>1.510065333149079</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.81990756015394</v>
@@ -12564,7 +12516,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.548443612605795</v>
+        <v>1.518146300692095</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.790888574667209</v>
@@ -12653,7 +12605,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.551839651131392</v>
+        <v>1.520265677052409</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.009147346184604</v>
@@ -12742,7 +12694,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.544281894928695</v>
+        <v>1.515452996002252</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.716548057430131</v>
@@ -12831,7 +12783,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.540505658273892</v>
+        <v>1.513960373262851</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.555083334673442</v>
@@ -12920,7 +12872,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.538053851473224</v>
+        <v>1.514275652635541</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.689654290379902</v>
@@ -13009,7 +12961,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.554840172050177</v>
+        <v>1.536285255587925</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.780105788170431</v>
@@ -13098,7 +13050,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.564228071677785</v>
+        <v>1.547243010592505</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.735826725361507</v>
@@ -13187,7 +13139,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.568390252798669</v>
+        <v>1.553119963070849</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.839826492424518</v>
@@ -13276,7 +13228,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.58230391079692</v>
+        <v>1.56591425392574</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.582544134276924</v>
@@ -13365,7 +13317,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.589680347647103</v>
+        <v>1.5737044931087</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.67221285700524</v>
@@ -13454,7 +13406,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.59764909140559</v>
+        <v>1.577394135664548</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.038780147010392</v>
@@ -13543,7 +13495,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.614270559786398</v>
+        <v>1.596090563977238</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.424861180720672</v>
@@ -13632,7 +13584,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.607091903368119</v>
+        <v>1.586992391521759</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.84004472317336</v>
@@ -13721,7 +13673,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.602994581355682</v>
+        <v>1.580301437227355</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.81786975531254</v>
@@ -13810,7 +13762,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.598538617791771</v>
+        <v>1.577067807336547</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.835531013331837</v>
@@ -13899,7 +13851,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.569767141062827</v>
+        <v>1.549969271501276</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.361260345457779</v>
@@ -14185,7 +14137,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.564986078036494</v>
+        <v>1.529518580375212</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.144637980492787</v>
@@ -14274,7 +14226,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.57107543998582</v>
+        <v>1.537445277285937</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.117191497546368</v>
@@ -14363,7 +14315,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.556014126945622</v>
+        <v>1.524103530853562</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.143372633280493</v>
@@ -14452,7 +14404,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.578278263997734</v>
+        <v>1.541177544052004</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.14069034105513</v>
@@ -14541,7 +14493,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.578862398101305</v>
+        <v>1.538016865145819</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.915772568778663</v>
@@ -14630,7 +14582,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.579056284164878</v>
+        <v>1.533053136670814</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.650120971968629</v>
@@ -14719,7 +14671,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.592452660673989</v>
+        <v>1.545401133845294</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.474356412778703</v>
@@ -14808,7 +14760,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.590184289425507</v>
+        <v>1.538993329056555</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.859991375469964</v>
@@ -14897,7 +14849,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.582316633071769</v>
+        <v>1.536982702806341</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.542785525567734</v>
@@ -14986,7 +14938,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.578814489630772</v>
+        <v>1.539917225209373</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.882685108081353</v>
@@ -15075,7 +15027,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.563604636916446</v>
+        <v>1.529124255559334</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.637247073827296</v>
@@ -15164,7 +15116,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.547113167615023</v>
+        <v>1.525213641975359</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.795242756120481</v>
@@ -15253,7 +15205,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.547500750951708</v>
+        <v>1.523763962653944</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.549556038456715</v>
@@ -15342,7 +15294,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.551319018869814</v>
+        <v>1.52336701119206</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.543338772908917</v>
@@ -15431,7 +15383,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.553842464915074</v>
+        <v>1.52799623026683</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.739822480326076</v>
@@ -15520,7 +15472,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.5524723388848</v>
+        <v>1.522927105324757</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.411401793600514</v>
@@ -15609,7 +15561,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.54783228982479</v>
+        <v>1.511589443235577</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.460108393971483</v>
@@ -15698,7 +15650,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.548182932457377</v>
+        <v>1.513805657912482</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.879408311549807</v>
@@ -15787,7 +15739,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.538418545853958</v>
+        <v>1.511906096509903</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.441797208062379</v>
@@ -15876,7 +15828,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.561376034673154</v>
+        <v>1.533930211947518</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.3850107298789</v>
@@ -15965,7 +15917,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.55775211735237</v>
+        <v>1.52010595567424</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.158112250836192</v>
@@ -16054,7 +16006,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.552761145449291</v>
+        <v>1.513810875721066</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.155301401421669</v>
@@ -16143,7 +16095,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.543234696686391</v>
+        <v>1.507126177247788</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.966469363799027</v>
@@ -16232,7 +16184,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.533205667349065</v>
+        <v>1.49744347300044</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.21049670131525</v>
@@ -16321,7 +16273,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.549274877179092</v>
+        <v>1.505245990551259</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.279677055970979</v>
@@ -16410,7 +16362,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.562699906946276</v>
+        <v>1.512545842140746</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.156604916649944</v>
@@ -16499,7 +16451,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.560355573066845</v>
+        <v>1.50593000038149</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.226485890776045</v>
@@ -16588,7 +16540,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.557944360154483</v>
+        <v>1.501635603459708</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.156557754407075</v>
@@ -16677,7 +16629,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.548646602538962</v>
+        <v>1.492558848455878</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.112728680577815</v>
@@ -16766,7 +16718,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.543431250605071</v>
+        <v>1.483668886787788</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.015768416803831</v>
@@ -16855,7 +16807,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.547045703097946</v>
+        <v>1.492363376820787</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.764991949785501</v>
@@ -16944,7 +16896,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.546296739728942</v>
+        <v>1.495477426421185</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.153050667140794</v>
@@ -17033,7 +16985,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.554260855943358</v>
+        <v>1.500648002809115</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.914509290178281</v>
@@ -17122,7 +17074,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.559813687236305</v>
+        <v>1.501854006366188</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.405025425181659</v>
@@ -17211,7 +17163,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.538539491279818</v>
+        <v>1.47670509626387</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.413423255369148</v>
@@ -17300,7 +17252,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.525260240825507</v>
+        <v>1.488691177959967</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.40205091752163</v>
@@ -17389,7 +17341,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.532481149678796</v>
+        <v>1.500942159302187</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.384878208475917</v>
@@ -17478,7 +17430,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.544848968965958</v>
+        <v>1.515069992569461</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.397379043602207</v>
@@ -17567,7 +17519,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.557610629335841</v>
+        <v>1.52619402321352</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.42954958426814</v>
@@ -17656,7 +17608,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.551078640579878</v>
+        <v>1.524653569256022</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.360490541781846</v>
@@ -17745,7 +17697,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.540879133718269</v>
+        <v>1.521472549677004</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.319108063179612</v>
@@ -17834,7 +17786,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.538423771184544</v>
+        <v>1.52284353662826</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.393185328490946</v>
@@ -17923,7 +17875,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.531550121679172</v>
+        <v>1.520097068275057</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.320492138765607</v>
@@ -18012,7 +17964,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.535850467923183</v>
+        <v>1.524069934614616</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.351383811118643</v>
@@ -18101,7 +18053,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.532651417275097</v>
+        <v>1.524895114894289</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.312679032825147</v>
@@ -18190,7 +18142,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.521405211322947</v>
+        <v>1.511735660098231</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.292220553233619</v>
@@ -18279,7 +18231,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.508531554440623</v>
+        <v>1.502203178800806</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.348108999767143</v>
@@ -18368,7 +18320,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.512120301712337</v>
+        <v>1.503991337391265</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.389506502623324</v>
@@ -18457,7 +18409,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.513139877703043</v>
+        <v>1.504691533504763</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.211213059100683</v>
@@ -18546,7 +18498,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.537579716497948</v>
+        <v>1.523268956003007</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.383198562689483</v>
@@ -18635,7 +18587,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.538087838433687</v>
+        <v>1.50888174744714</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.112994513223113</v>
@@ -18921,7 +18873,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.46380755909624</v>
+        <v>1.454742935640127</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.332970672548936</v>
@@ -19010,7 +18962,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.456453818406938</v>
+        <v>1.447297974638142</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.278734073596049</v>
@@ -19099,7 +19051,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.423992874529103</v>
+        <v>1.418224555692241</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.252132564393055</v>
@@ -19188,7 +19140,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.43887097144735</v>
+        <v>1.42129431157406</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.31254321990119</v>
@@ -19277,7 +19229,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.467799295068185</v>
+        <v>1.455730743761352</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.287537563378852</v>
@@ -19366,7 +19318,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.475507975172938</v>
+        <v>1.460717607748806</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.116069066121792</v>
@@ -19455,7 +19407,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.49013008201482</v>
+        <v>1.467364661343966</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.329316072674726</v>
@@ -19544,7 +19496,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.454093177015398</v>
+        <v>1.430026419708559</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.269618585041919</v>
@@ -19633,7 +19585,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.448438091631636</v>
+        <v>1.424042588896298</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.287344783469956</v>
@@ -19722,7 +19674,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.452015912951425</v>
+        <v>1.424596635938542</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.190828740679304</v>
@@ -19811,7 +19763,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.479827612088312</v>
+        <v>1.449383509863045</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.129494351937859</v>
@@ -19900,7 +19852,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.480991677461213</v>
+        <v>1.450039789879189</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.146553724521672</v>
@@ -19989,7 +19941,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.506791152186417</v>
+        <v>1.460207636209948</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.114027403545881</v>
@@ -20078,7 +20030,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.480642883544034</v>
+        <v>1.453865896980523</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.260343977587651</v>
@@ -20167,7 +20119,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.479047338402524</v>
+        <v>1.452516062186226</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.237363480046678</v>
@@ -20256,7 +20208,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.479128935290908</v>
+        <v>1.452211717556475</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.254722491641981</v>
@@ -20345,7 +20297,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.489733776111575</v>
+        <v>1.454841423817285</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.967964267681498</v>
@@ -20434,7 +20386,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.520736097002863</v>
+        <v>1.485000148154379</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.313218282269025</v>
@@ -20523,7 +20475,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.474405323002643</v>
+        <v>1.458456095872864</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.397542606699687</v>
@@ -20612,7 +20564,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.469899743237185</v>
+        <v>1.455694736247227</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.298610435658824</v>
@@ -20701,7 +20653,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.459412899377411</v>
+        <v>1.428070143180061</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.261770670925027</v>
@@ -20790,7 +20742,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.455726091921463</v>
+        <v>1.432129050299569</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.39316695111967</v>
@@ -20879,7 +20831,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.489103169912001</v>
+        <v>1.460677871734006</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.227026391451405</v>
@@ -20968,7 +20920,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.456260885318327</v>
+        <v>1.433336197006862</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.377718106748651</v>
@@ -21057,7 +21009,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.457849039886927</v>
+        <v>1.434048274650539</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.420855980419851</v>
@@ -21146,7 +21098,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.453706771833339</v>
+        <v>1.421003005879893</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.283810571199088</v>
@@ -21235,7 +21187,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.447019700916964</v>
+        <v>1.417196324074261</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.35822286724012</v>
@@ -21324,7 +21276,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.471333099031167</v>
+        <v>1.433786327825064</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.040694210302226</v>
@@ -21413,7 +21365,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.46733586426097</v>
+        <v>1.430789709612082</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.347102788807815</v>
@@ -21502,7 +21454,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.437063703994307</v>
+        <v>1.40382148542311</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.326160859688659</v>
@@ -21591,7 +21543,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.438968855762917</v>
+        <v>1.406687390642819</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.243848412280925</v>
@@ -21680,7 +21632,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.451539665744062</v>
+        <v>1.418062589742405</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.361594257887626</v>
@@ -21769,7 +21721,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.451730113433972</v>
+        <v>1.421074411508047</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.243313639098932</v>
@@ -21858,7 +21810,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.470331765577062</v>
+        <v>1.430509085373194</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.274326434208169</v>
@@ -21947,7 +21899,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.473477931934334</v>
+        <v>1.432578226698128</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.34215561419771</v>
@@ -22036,7 +21988,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.45734868942293</v>
+        <v>1.43333903985585</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.327866307242731</v>
@@ -22125,7 +22077,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.43828919518971</v>
+        <v>1.416984230180488</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.285821290294978</v>
@@ -22214,7 +22166,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.432618186157711</v>
+        <v>1.408030089902553</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.195619848067988</v>
@@ -22303,7 +22255,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.472373291194843</v>
+        <v>1.445622452256368</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.157709472648461</v>
@@ -22392,7 +22344,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.473311081960251</v>
+        <v>1.447340870689504</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.307539540274659</v>
@@ -22481,7 +22433,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.442251133884808</v>
+        <v>1.432286278077715</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.289075618169691</v>
@@ -22570,7 +22522,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.446524970152951</v>
+        <v>1.436753518263861</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.195426749639195</v>
@@ -22659,7 +22611,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.443806768583432</v>
+        <v>1.439661063285918</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.244081468376699</v>
@@ -22748,7 +22700,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.45220563427342</v>
+        <v>1.448928409430298</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.276370950962101</v>
@@ -22837,7 +22789,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.469160212650666</v>
+        <v>1.462706353287571</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.294171378344698</v>
@@ -22926,7 +22878,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.443565581873659</v>
+        <v>1.437566360798227</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.232525293098447</v>
@@ -23015,7 +22967,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.434625595821019</v>
+        <v>1.430872673819688</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.300024104162221</v>
@@ -23104,7 +23056,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.442871059224564</v>
+        <v>1.43410641282487</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.173401545141563</v>
@@ -23193,7 +23145,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.456377836402779</v>
+        <v>1.449140302685562</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.233644078224839</v>
@@ -23282,7 +23234,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.466140465931298</v>
+        <v>1.463187065743126</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.994691598620276</v>
@@ -23371,7 +23323,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.463258014155683</v>
+        <v>1.449109094075536</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.943852555178311</v>
@@ -23657,7 +23609,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.521400372906832</v>
+        <v>1.507862742902371</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.664621044620756</v>
@@ -23746,7 +23698,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.520020909750074</v>
+        <v>1.503767823112285</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.625109351831955</v>
@@ -23835,7 +23787,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.521072911108593</v>
+        <v>1.504609320565048</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.655107944155708</v>
@@ -23924,7 +23876,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.540076069980197</v>
+        <v>1.517116116847984</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.608861109431995</v>
@@ -24013,7 +23965,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.543926840602613</v>
+        <v>1.520541079061852</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.473931350220386</v>
@@ -24102,7 +24054,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.561910038527301</v>
+        <v>1.535362056660599</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.411223013009403</v>
@@ -24191,7 +24143,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.554934347016777</v>
+        <v>1.526412347232664</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.580197391096252</v>
@@ -24280,7 +24232,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.543332009983976</v>
+        <v>1.500739646212984</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.471285908988408</v>
@@ -24369,7 +24321,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.524113493306682</v>
+        <v>1.490939107491621</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.440371822598136</v>
@@ -24458,7 +24410,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.528898627296755</v>
+        <v>1.497868130891461</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.431920355955289</v>
@@ -24547,7 +24499,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.526814288501772</v>
+        <v>1.499505109576572</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.559153498715829</v>
@@ -24636,7 +24588,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.531799590538207</v>
+        <v>1.504799037583666</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.467478193444459</v>
@@ -24725,7 +24677,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.541954424735503</v>
+        <v>1.517189944077825</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.46555131020583</v>
@@ -24814,7 +24766,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.552090305501589</v>
+        <v>1.524739563615519</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.816884177771702</v>
@@ -24903,7 +24855,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.55636389203664</v>
+        <v>1.519694806444613</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.798093552728895</v>
@@ -24992,7 +24944,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.544138330602969</v>
+        <v>1.511987063845558</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.697831506666506</v>
@@ -25081,7 +25033,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.547592040002167</v>
+        <v>1.514896734805292</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.788074033909489</v>
@@ -25170,7 +25122,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.546319319802508</v>
+        <v>1.512311950774701</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.836114478504197</v>
@@ -25259,7 +25211,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.519133613900781</v>
+        <v>1.495079918637753</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.846042221406234</v>
@@ -25348,7 +25300,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.52918410790807</v>
+        <v>1.510362244227195</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.875887177302539</v>
@@ -25437,7 +25389,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.528604644312867</v>
+        <v>1.504752702373416</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.816741766213692</v>
@@ -25526,7 +25478,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.530131658303556</v>
+        <v>1.505327409062971</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.866143649052221</v>
@@ -25615,7 +25567,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.559379979733336</v>
+        <v>1.53202023023637</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.540038718167002</v>
@@ -25704,7 +25656,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.578583761860163</v>
+        <v>1.545984311381647</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.824004126473874</v>
@@ -25793,7 +25745,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.57734298475868</v>
+        <v>1.538796831784419</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.959012853264189</v>
@@ -25882,7 +25834,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.566532499994891</v>
+        <v>1.518833019680044</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.81963197423881</v>
@@ -25971,7 +25923,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.575886347164253</v>
+        <v>1.531469732305509</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.059225708495645</v>
@@ -26060,7 +26012,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.583555470243806</v>
+        <v>1.534737187041487</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.972429406991545</v>
@@ -26149,7 +26101,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.590644955715087</v>
+        <v>1.543705479770792</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.088872905075907</v>
@@ -26238,7 +26190,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.601040071678968</v>
+        <v>1.55398032200605</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.760792699686434</v>
@@ -26327,7 +26279,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.593871071723434</v>
+        <v>1.547601418872336</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.840901009139002</v>
@@ -26416,7 +26368,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.59873164394466</v>
+        <v>1.553866263781141</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.062886230922135</v>
@@ -26505,7 +26457,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.603310993330894</v>
+        <v>1.561057898936996</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.370935712443607</v>
@@ -26594,7 +26546,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.604980443955145</v>
+        <v>1.561975898855662</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.1467898034909</v>
@@ -26683,7 +26635,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.621614945304437</v>
+        <v>1.572982193714121</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.150577801679396</v>
@@ -26772,7 +26724,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.621363791666576</v>
+        <v>1.577733272506668</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.983353655750807</v>
@@ -26861,7 +26813,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.618580581715378</v>
+        <v>1.581219612732738</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.254773632117891</v>
@@ -26950,7 +26902,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.600298892167119</v>
+        <v>1.56367624908583</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.147411417993239</v>
@@ -27039,7 +26991,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.592248257588671</v>
+        <v>1.558177515109773</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.819853061066456</v>
@@ -27128,7 +27080,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.603069449937197</v>
+        <v>1.57524259367054</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.234872887754572</v>
@@ -27217,7 +27169,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.61792830736764</v>
+        <v>1.597334495946005</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.113111187289483</v>
@@ -27306,7 +27258,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.605724540610458</v>
+        <v>1.584400759587482</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.002384334187278</v>
@@ -27395,7 +27347,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.595083750436101</v>
+        <v>1.579162673136668</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.074338214842007</v>
@@ -27484,7 +27436,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.610030157786421</v>
+        <v>1.595455137060552</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.062902726960804</v>
@@ -27573,7 +27525,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.608702794092496</v>
+        <v>1.599636253190545</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.827037813994436</v>
@@ -27662,7 +27614,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.591896473669213</v>
+        <v>1.583857630415931</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.741564289163767</v>
@@ -27751,7 +27703,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.597190005880224</v>
+        <v>1.589952293975969</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.453159189609444</v>
@@ -27840,7 +27792,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.596877293706127</v>
+        <v>1.589396023008279</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.799418304700958</v>
@@ -27929,7 +27881,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.597943700857144</v>
+        <v>1.589762078027491</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.736603205795436</v>
@@ -28018,7 +27970,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.589335683416158</v>
+        <v>1.581926696875896</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.641681405541521</v>
@@ -28107,7 +28059,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.563392463841109</v>
+        <v>1.548174007912974</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.478701745676031</v>
@@ -28393,7 +28345,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.276179821097314</v>
+        <v>1.261547354032194</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.21510745911382</v>
@@ -28482,7 +28434,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.290573575008577</v>
+        <v>1.271396165872985</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.161601328144732</v>
@@ -28571,7 +28523,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.289897156901163</v>
+        <v>1.272833273048293</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.284310547034987</v>
@@ -28660,7 +28612,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.321676037535894</v>
+        <v>1.299266251030143</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.1403090190251</v>
@@ -28749,7 +28701,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.332384248625208</v>
+        <v>1.310683516469796</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.341881282905789</v>
@@ -28838,7 +28790,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.326541330149319</v>
+        <v>1.30452850186793</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.190469063654942</v>
@@ -28927,7 +28879,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.347374692976741</v>
+        <v>1.323857084813144</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.039650134522046</v>
@@ -29016,7 +28968,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.337254835939048</v>
+        <v>1.307450725915958</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.981210856230185</v>
@@ -29105,7 +29057,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.342627902675499</v>
+        <v>1.31783979346116</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.105084004496322</v>
@@ -29194,7 +29146,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.363710733339959</v>
+        <v>1.338377064391786</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.093879947660313</v>
@@ -29283,7 +29235,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.36773383933449</v>
+        <v>1.341713071602023</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.051272129896377</v>
@@ -29372,7 +29324,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.382684956629944</v>
+        <v>1.357226068385992</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.161644063958564</v>
@@ -29461,7 +29413,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.398258278131182</v>
+        <v>1.372586079991641</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.097539342297669</v>
@@ -29550,7 +29502,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.427904611543828</v>
+        <v>1.39390200710212</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.141256199514725</v>
@@ -29639,7 +29591,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.431117941764985</v>
+        <v>1.392996156886014</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.185239568325451</v>
@@ -29728,7 +29680,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.443392983478742</v>
+        <v>1.405314302416058</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.111587519571297</v>
@@ -29817,7 +29769,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.457311089613744</v>
+        <v>1.416650919670481</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.094419547294883</v>
@@ -29906,7 +29858,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.451973642498046</v>
+        <v>1.403395282497089</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.147955785037861</v>
@@ -29995,7 +29947,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.412038352351669</v>
+        <v>1.381322118208549</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.099215804707045</v>
@@ -30084,7 +30036,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.4470471712801</v>
+        <v>1.421137905339239</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.146712824137279</v>
@@ -30173,7 +30125,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.43675934718862</v>
+        <v>1.400124403602022</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.131910305050558</v>
@@ -30262,7 +30214,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.437420626281768</v>
+        <v>1.401121554200285</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.18651560040024</v>
@@ -30351,7 +30303,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.437302055563666</v>
+        <v>1.408149867438607</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.295365767293288</v>
@@ -30440,7 +30392,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.440622290687636</v>
+        <v>1.413200772259072</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.153928391652403</v>
@@ -30529,7 +30481,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.446646330132811</v>
+        <v>1.418343370265716</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.117979482216288</v>
@@ -30618,7 +30570,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.46036577274775</v>
+        <v>1.420623377273713</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.067738736977754</v>
@@ -30707,7 +30659,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.457669355713235</v>
+        <v>1.418172068578258</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.116166913782892</v>
@@ -30796,7 +30748,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.468600701857695</v>
+        <v>1.42339393366806</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.976006151717695</v>
@@ -30885,7 +30837,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.459951898489243</v>
+        <v>1.424457642648742</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.126145039940786</v>
@@ -30974,7 +30926,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.463584198558915</v>
+        <v>1.432691266803357</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.159840820757211</v>
@@ -31063,7 +31015,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.463121917527648</v>
+        <v>1.436311513422318</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.15246440387872</v>
@@ -31152,7 +31104,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.461244607728482</v>
+        <v>1.433335797612437</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.117663046781288</v>
@@ -31241,7 +31193,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.482428385712367</v>
+        <v>1.45343930980821</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.300514186700648</v>
@@ -31330,7 +31282,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.449494529189899</v>
+        <v>1.423943586218659</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.18326446878377</v>
@@ -31419,7 +31371,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.444982319272279</v>
+        <v>1.415216742253721</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.075922210814173</v>
@@ -31508,7 +31460,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.459026738223508</v>
+        <v>1.438561194896345</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.052039477906222</v>
@@ -31597,7 +31549,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.481922192720086</v>
+        <v>1.455961070481726</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.241820469755012</v>
@@ -31686,7 +31638,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.46352084435185</v>
+        <v>1.437145530075582</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.161941165864202</v>
@@ -31775,7 +31727,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.47116529004123</v>
+        <v>1.440854411645495</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.112983738091558</v>
@@ -31864,7 +31816,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.476937188366819</v>
+        <v>1.446972757271078</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.120950725332052</v>
@@ -31953,7 +31905,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.468026745045834</v>
+        <v>1.451147360422926</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.107530564595502</v>
@@ -32042,7 +31994,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.451757514457701</v>
+        <v>1.436554356949935</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.148498998617828</v>
@@ -32131,7 +32083,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.446466659498328</v>
+        <v>1.431182032105063</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.118272407007581</v>
@@ -32220,7 +32172,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.474826594723736</v>
+        <v>1.453536046199015</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.04553904156743</v>
@@ -32309,7 +32261,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.47776953641618</v>
+        <v>1.449758178704642</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.085022178512536</v>
@@ -32398,7 +32350,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.428194883650502</v>
+        <v>1.404504786035794</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.040055889147896</v>
@@ -32487,7 +32439,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.430539609425385</v>
+        <v>1.411908420378614</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.948109187856797</v>
@@ -32576,7 +32528,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.418267463787944</v>
+        <v>1.401806574294799</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.077985899597038</v>
@@ -32665,7 +32617,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.457110651459957</v>
+        <v>1.4342109378508</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.053922237796077</v>
@@ -32754,7 +32706,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.437424389873083</v>
+        <v>1.418472615677413</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.981117173881108</v>
@@ -32843,7 +32795,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.403274245786837</v>
+        <v>1.38463428829609</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.017384662655869</v>
